--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/利息支出.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/利息支出.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>31.63096</v>
-      </c>
-      <c r="C2" t="n">
-        <v>86.22475</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.869</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00218</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.6791</v>
-      </c>
-      <c r="G2" t="n">
-        <v>98.99008000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>26.21909</v>
-      </c>
-      <c r="I2" t="n">
-        <v>26.33426</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.91076</v>
-      </c>
-      <c r="K2" t="n">
-        <v>12.48184</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1281.16899</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.38449</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.44752</v>
-      </c>
-      <c r="O2" t="n">
-        <v>48.05563</v>
-      </c>
-      <c r="P2" t="n">
-        <v>55.03841</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5.62085</v>
-      </c>
-      <c r="R2" t="n">
-        <v>7.10002</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5.98387</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.61417</v>
-      </c>
-      <c r="U2" t="n">
-        <v>12.43916</v>
-      </c>
-      <c r="V2" t="n">
-        <v>14.59636</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.96797</v>
-      </c>
-      <c r="X2" t="n">
-        <v>30.6394</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>233.67241</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>54.32176</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>49.27161</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>4.31757</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>54.80203</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>40.3104</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>66.0645</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>4.46854</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>23.8491</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>15.2432</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>51.3601</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>3.84571</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>13.00113</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>28.64842</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>21.27402</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>117.36868</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.57802</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>29.10867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>77.46725000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.82051</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00048</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.87401</v>
-      </c>
-      <c r="G3" t="n">
-        <v>91.00933000000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>19.64394</v>
-      </c>
-      <c r="I3" t="n">
-        <v>29.2467</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.03654</v>
-      </c>
-      <c r="K3" t="n">
-        <v>13.51484</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1284.59006</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.24808</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.81426</v>
-      </c>
-      <c r="O3" t="n">
-        <v>47.2458</v>
-      </c>
-      <c r="P3" t="n">
-        <v>40.39993</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5.61381</v>
-      </c>
-      <c r="R3" t="n">
-        <v>7.42138</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5.48139</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.54455</v>
-      </c>
-      <c r="U3" t="n">
-        <v>13.88301</v>
-      </c>
-      <c r="V3" t="n">
-        <v>26.38438</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.29287</v>
-      </c>
-      <c r="X3" t="n">
-        <v>33.89702</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>299.27979</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>58.43218</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>47.64968</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>4.45613</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>52.0897</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>27.1433</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>57.17215</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>4.42601</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>34.59562</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>16.05069</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>50.44917</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>5.58912</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>12.18477</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>28.29392</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>19.67761</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>92.66864</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.70086</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>27.08786</v>
-      </c>
-      <c r="C4" t="n">
-        <v>73.83477000000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.34255</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00021</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.40745</v>
-      </c>
-      <c r="G4" t="n">
-        <v>98.93335999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>19.70915</v>
-      </c>
-      <c r="I4" t="n">
-        <v>30.94951</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.26401</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14.22907</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1321.01603</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.56504</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.67962</v>
-      </c>
-      <c r="O4" t="n">
-        <v>42.99373</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44.15978</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>6.27939</v>
-      </c>
-      <c r="R4" t="n">
-        <v>6.68942</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5.13583</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.7865</v>
-      </c>
-      <c r="U4" t="n">
-        <v>14.02623</v>
-      </c>
-      <c r="V4" t="n">
-        <v>25.36284</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.46983</v>
-      </c>
-      <c r="X4" t="n">
-        <v>47.74524</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>323.87739</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>56.12147</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>45.66241</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>4.30063</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>48.60946</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>22.96076</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>53.52105</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>6.09918</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>35.63989</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>14.81185</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>47.70972</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>5.14819</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>15.84492</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>28.62381</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>19.81215</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>99.68291000000001</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1.54249</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
